--- a/里程碑.xlsx
+++ b/里程碑.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\94808\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\94808\Documents\GitHub\Team108\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11EEF81-3571-4488-8ED3-A89413F59158}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB6E451-84D7-4782-A7D2-45A0FEF60ED2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{141908F9-A389-4C05-99AA-F088B65EEB92}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>截止日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,11 +99,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>实现机器人导航功能及测试</t>
+    <t>持续时间(天)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>实现物品识别及抓取功能及测试</t>
+    <t>实现导航功能及测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现物品抓取功能及测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -111,8 +115,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="yyyy/m/d;@"/>
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -153,7 +158,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -163,10 +168,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -184,6 +192,1138 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12940811485958734"/>
+          <c:y val="8.2497187851518564E-2"/>
+          <c:w val="0.84075641737899764"/>
+          <c:h val="0.88258217722784649"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>开始日期</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>确定项目开发计划</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>需求分析调研</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>需求分析文档编写</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>需求分析评审</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>软件设计讨论</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>软件设计文档编写</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>软件设计文档评审</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>实现导航功能及测试</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>实现物品抓取功能及测试</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>功能综合及综合测试</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>代码评审</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>测试文档编写</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>测试文档评审1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>测试文档修改</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>测试文档评审2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>综合完善</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/m/d;@</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>43529</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43535</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43542</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43556</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43558</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43563</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43577</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43563</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43563</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43584</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43598</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43619</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43621</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43626</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43628</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4994-482A-A722-3CC074E1DBD4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>持续时间(天)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>确定项目开发计划</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>需求分析调研</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>需求分析文档编写</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>需求分析评审</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>软件设计讨论</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>软件设计文档编写</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>软件设计文档评审</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>实现导航功能及测试</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>实现物品抓取功能及测试</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>功能综合及综合测试</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>代码评审</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>测试文档编写</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>测试文档评审1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>测试文档修改</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>测试文档评审2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>综合完善</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>0_);[Red]\(0\)</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4994-482A-A722-3CC074E1DBD4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="637613800"/>
+        <c:axId val="637614128"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="637613800"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="637614128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="637614128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="43634"/>
+          <c:min val="43529"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="yyyy/m/d;@" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="637613800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E531272C-20A7-4BC3-978A-49625974C22C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -483,283 +1623,363 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431AF28D-A18B-4C0A-9B28-E89197815DF4}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="23.5" customWidth="1"/>
-    <col min="3" max="3" width="38.625" customWidth="1"/>
-    <col min="4" max="4" width="35.875" customWidth="1"/>
-    <col min="5" max="5" width="27.25" customWidth="1"/>
+    <col min="1" max="1" width="38.625" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="4" width="23.5" customWidth="1"/>
+    <col min="5" max="5" width="35.875" customWidth="1"/>
+    <col min="6" max="6" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="B2" s="3">
+        <v>43529</v>
+      </c>
+      <c r="C2" s="3">
         <v>43534</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="5">
+        <f>_xlfn.DAYS(C2,B2)+1</f>
+        <v>6</v>
+      </c>
       <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3">
         <v>43535</v>
       </c>
-      <c r="B3" s="3">
+      <c r="C3" s="3">
         <v>43541</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="5">
+        <f>_xlfn.DAYS(C3,B3)+1</f>
+        <v>7</v>
+      </c>
       <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3">
         <v>43542</v>
       </c>
-      <c r="B4" s="3">
+      <c r="C4" s="3">
         <v>43555</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="5">
+        <f t="shared" ref="D4:D17" si="0">_xlfn.DAYS(C4,B4)+1</f>
+        <v>14</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>43556</v>
+      </c>
+      <c r="C5" s="3">
+        <v>43557</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3">
+        <v>43558</v>
+      </c>
+      <c r="C6" s="3">
+        <v>43562</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3">
+        <v>43563</v>
+      </c>
+      <c r="C7" s="3">
+        <v>43576</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3">
+        <v>43577</v>
+      </c>
+      <c r="C8" s="3">
+        <v>43578</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3">
+        <v>43563</v>
+      </c>
+      <c r="C9" s="3">
+        <v>43583</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="3">
+        <v>43563</v>
+      </c>
+      <c r="C10" s="3">
+        <v>43583</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="3">
+        <v>43584</v>
+      </c>
+      <c r="C11" s="3">
+        <v>43597</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3">
+        <v>43598</v>
+      </c>
+      <c r="C12" s="3">
+        <v>43599</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>43600</v>
+      </c>
+      <c r="C13" s="3">
+        <v>43618</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3">
+        <v>43619</v>
+      </c>
+      <c r="C14" s="3">
+        <v>43620</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
+        <v>43621</v>
+      </c>
+      <c r="C15" s="3">
+        <v>43625</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="3">
+        <v>43626</v>
+      </c>
+      <c r="C16" s="3">
+        <v>43627</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3">
+        <v>43628</v>
+      </c>
+      <c r="C17" s="3">
+        <v>43634</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>43556</v>
-      </c>
-      <c r="B5" s="3">
-        <v>43557</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>43558</v>
-      </c>
-      <c r="B6" s="3">
-        <v>43562</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>43563</v>
-      </c>
-      <c r="B7" s="3">
-        <v>43576</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>43577</v>
-      </c>
-      <c r="B8" s="3">
-        <v>43578</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>43579</v>
-      </c>
-      <c r="B9" s="3">
-        <v>43585</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>43586</v>
-      </c>
-      <c r="B10" s="3">
-        <v>43592</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>43593</v>
-      </c>
-      <c r="B11" s="3">
-        <v>43597</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>43598</v>
-      </c>
-      <c r="B12" s="3">
-        <v>43599</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>43600</v>
-      </c>
-      <c r="B13" s="3">
-        <v>43618</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>43619</v>
-      </c>
-      <c r="B14" s="3">
-        <v>43620</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>43621</v>
-      </c>
-      <c r="B15" s="3">
-        <v>43625</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>43626</v>
-      </c>
-      <c r="B16" s="3">
-        <v>43627</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>43628</v>
-      </c>
-      <c r="B17" s="3">
-        <v>43634</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="1"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
       <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
       <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
       <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
       <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
       <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
       <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
       <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
       <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
       <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
       <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>